--- a/投資信託の用語集.xlsx
+++ b/投資信託の用語集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.58.42146"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="SHEET1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>用語</t>
   </si>
@@ -38,6 +38,254 @@
   </si>
   <si>
     <t>決済</t>
+  </si>
+  <si>
+    <t>買付手数料</t>
+  </si>
+  <si>
+    <t>投資信託を購入する際に、販売会社へ支払う手数料のこと。</t>
+  </si>
+  <si>
+    <t>申込手数料</t>
+  </si>
+  <si>
+    <t>買取請求</t>
+  </si>
+  <si>
+    <t>途中換金したい投資信託を証券会社等の販売会社に買い取ってもらう換金方法のこと。</t>
+  </si>
+  <si>
+    <t>買取</t>
+  </si>
+  <si>
+    <t>信託契約の解除を請求する換金方法のこと。</t>
+  </si>
+  <si>
+    <t>解約</t>
+  </si>
+  <si>
+    <t>解約請求</t>
+  </si>
+  <si>
+    <t>解約価額</t>
+  </si>
+  <si>
+    <t>投資信託を解約する際の税引き前の価額のこと。</t>
+  </si>
+  <si>
+    <t>火薬手数料</t>
+  </si>
+  <si>
+    <t>解約手数料</t>
+  </si>
+  <si>
+    <t>投資信託を途中解約（）</t>
+  </si>
+  <si>
+    <t>投資信託を途中解約（換金）したとき、受益者が負担する費用で販売会社が受領すること。</t>
+  </si>
+  <si>
+    <t>確定申告</t>
+  </si>
+  <si>
+    <t>特定口座</t>
+  </si>
+  <si>
+    <t>「」</t>
+  </si>
+  <si>
+    <t>「源泉徴収あり」→確定申告をしなくて良い。</t>
+  </si>
+  <si>
+    <t>「源泉徴収なしの特定口座」→証券会社等が損益を計算した「年間取引報告書」を発行して</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　　」　　　　　　　　　くれるので、その報告書を利用して簡単に確定申告を済ませる</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　　」　利用して簡単に確定申告を済ませる</t>
+  </si>
+  <si>
+    <t>済ませる</t>
+  </si>
+  <si>
+    <t>してくれるので、その報告書を利用して簡単に確定申告を済ませることができる。</t>
+  </si>
+  <si>
+    <t>「源泉徴収あり」→確定申告をしなくて良い。
+「源泉徴収なしの特定口座」→証券会社等が損益を計算した「年間取引報告書」を発行して</t>
+  </si>
+  <si>
+    <t>「源泉徴収あり」→確定申告をしなくて良い。
+「源泉徴収なしの特定口座」→証券会社等が損益を計算した「年間取引報告書」を発行して
+してくれるので、その報告書を利用して簡単に確定申告を済ませることができる。</t>
+  </si>
+  <si>
+    <t>途中換金したい投資信託を、証券会社等の販売会社に買い取ってもらう換金方法のこと。</t>
+  </si>
+  <si>
+    <t>株式投資信託</t>
+  </si>
+  <si>
+    <t>約款上、株式の組入れが</t>
+  </si>
+  <si>
+    <t>約款上、株式の組入れが可能な投資信託のこと。</t>
+  </si>
+  <si>
+    <t>公社債投資信託</t>
+  </si>
+  <si>
+    <t>為替ヘッジ</t>
+  </si>
+  <si>
+    <t>外貨建資産を組入れた際に為替リスクを小さくするためにとられる手法のこと。</t>
+  </si>
+  <si>
+    <t>為替リスク</t>
+  </si>
+  <si>
+    <t>監査報酬</t>
+  </si>
+  <si>
+    <t>投資信託の計理が公正に行われているか監査するための費用のこと。</t>
+  </si>
+  <si>
+    <t>MMF</t>
+  </si>
+  <si>
+    <t>日々決算を行なう、公社債投資信託の一つ。</t>
+  </si>
+  <si>
+    <t>日々決算を行なう、公社債投資信託の一つ。リスクの低い運用を行なっている（元本保証では無い）</t>
+  </si>
+  <si>
+    <t>基準価額</t>
+  </si>
+  <si>
+    <t>日々算出される投資信託の価額のこと。</t>
+  </si>
+  <si>
+    <t>受益権口数</t>
+  </si>
+  <si>
+    <t>キャピタルゲイン</t>
+  </si>
+  <si>
+    <t>投資元本（）</t>
+  </si>
+  <si>
+    <t>投資元本（キャピタル）の値上がりによる収益のこと。</t>
+  </si>
+  <si>
+    <t>譲渡益</t>
+  </si>
+  <si>
+    <t>仕組債</t>
+  </si>
+  <si>
+    <t>金融派生商品を組み込んだ債券のこと。</t>
+  </si>
+  <si>
+    <t>償還</t>
+  </si>
+  <si>
+    <t>投資信託の信託期間が終了したときに受益者に返還される資金のこと。</t>
+  </si>
+  <si>
+    <t>償還金</t>
+  </si>
+  <si>
+    <t>時価</t>
+  </si>
+  <si>
+    <t>現時点でのモノの市場での価額のこと</t>
+  </si>
+  <si>
+    <t>現時点でのモノの市場での価額のこと。需要と供給で決まる。</t>
+  </si>
+  <si>
+    <t>日々算出される投資信託の価額のこと。その投資信託が保有する株式や債券などの時価評価の総額に利息や配当金などの収入を加え、そこから運用コストを差し引いた金額を総口数で割って算出しています。</t>
+  </si>
+  <si>
+    <t>日々算出される投資信託の価額のこと。その投資信託が保有する株式や債券などの時価評価の総額に利息や
+配当金などの収入を加え、そこから運用コストを差し引いた金額を総口数で割って算出しています。</t>
+  </si>
+  <si>
+    <t>日々算出される投資信託の価額のこと。その投資信託が保有する株式や債券などの時価評価の総額に利息や
+配当金などの収入を加え、そこから運用コストを差し引いた金額を総口数で割って算出している。</t>
+  </si>
+  <si>
+    <t>日々算出される投資信託の価額のこと（一口または一万口の場合が多い）。その投資信託が保有する株式や債券などの時価評価の総額に利息や配当金などの収入を加え、そこから運用コストを差し引いた金額を総口数で割って算出している。</t>
+  </si>
+  <si>
+    <t>日々算出される投資信託の価額のこと（１口または１万口の値段の場合が多い）。その投資信託が保有する株式や債券などの時価評価の総額に利息や配当金などの収入を加え、そこから運用コストを差し引いた金額を総口数で割って算出している。</t>
+  </si>
+  <si>
+    <t>時価評価</t>
+  </si>
+  <si>
+    <t>モノの価値を決める際の基準として時価を採用すること。</t>
+  </si>
+  <si>
+    <t>実現損益</t>
+  </si>
+  <si>
+    <t>有価証券を換金した際に、購入した時の元本と比べて得られる実際の利益または損失のこと。</t>
+  </si>
+  <si>
+    <t>設定日</t>
+  </si>
+  <si>
+    <t>投資信託の運用が開始する日のこと。</t>
+  </si>
+  <si>
+    <t>上場株式等の取引から生じた譲渡所得の年間損益を証券会社等が計算してくれるサービスを提供する口座のこと</t>
+  </si>
+  <si>
+    <t>上場株式等の取引から生じた譲渡所得の年間損益を証券会社等が計算してくれるサービスを提供する口座のこと。</t>
+  </si>
+  <si>
+    <t>評価損益</t>
+  </si>
+  <si>
+    <t>実際に売却していないが、</t>
+  </si>
+  <si>
+    <t>実際に売却していないが、ある時点において</t>
+  </si>
+  <si>
+    <t>実際に売却していないが、ある時点において保有している</t>
+  </si>
+  <si>
+    <t>実際に売却していないが、ある時点において保有している有価証券の時価から簿価を引いた額のこと。</t>
+  </si>
+  <si>
+    <t>複利</t>
+  </si>
+  <si>
+    <t>元本に利息を足し合わせたものを新たな元本として利息を計算すること。</t>
+  </si>
+  <si>
+    <t>簿価</t>
+  </si>
+  <si>
+    <t>帳簿上の取得価格のこと。</t>
+  </si>
+  <si>
+    <t>販売手数料、申込手数料</t>
+  </si>
+  <si>
+    <t>投資信託の募集・販売の際に用いられる投資信託の募集要項や費用、運用の内容などを記載した書面のこと。</t>
+  </si>
+  <si>
+    <t>目論見書</t>
+  </si>
+  <si>
+    <t>約定</t>
+  </si>
+  <si>
+    <t>投資家の取引の申し込みに基づいた、実際の投資信託の設定・換金のこと。</t>
   </si>
 </sst>
 </file>
@@ -45,7 +293,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11.0"/>
       <name val="Yu Gothic"/>
@@ -155,6 +403,21 @@
       <sz val="11.0"/>
       <name val="Yu Gothic"/>
       <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Meiryo"/>
+      <color rgb="FF333333"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="游ゴシック"/>
+      <color rgb="FF333333"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="游ゴシック"/>
+      <color rgb="FF333333"/>
     </font>
   </fonts>
   <fills count="33">
@@ -354,7 +617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -469,6 +732,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="thin">
+        <color theme="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -628,6 +960,78 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -947,43 +1351,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A29" sqref="A29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="82.50499725" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="3.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="17.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="102.62999725" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="22.87999916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="0">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="39.600000">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/投資信託の用語集.xlsx
+++ b/投資信託の用語集.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.58.42146"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="SHEET1" sheetId="1" r:id="rId1"/>
-    <sheet name="SHEET2" sheetId="2" r:id="rId2"/>
-    <sheet name="SHEET3" sheetId="3" r:id="rId3"/>
+    <sheet name="投信" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -17,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>用語</t>
   </si>
@@ -286,6 +284,103 @@
   </si>
   <si>
     <t>投資家の取引の申し込みに基づいた、実際の投資信託の設定・換金のこと。</t>
+  </si>
+  <si>
+    <t>受け渡し日</t>
+  </si>
+  <si>
+    <t>受渡日</t>
+  </si>
+  <si>
+    <t>有価証券などの売買が成立し、</t>
+  </si>
+  <si>
+    <t>有価証券などの売買が成立し、決済（受渡）を行なう日のこと。</t>
+  </si>
+  <si>
+    <t>有価証券などの売買が成立し、決済（受渡）を行なう日のこと。
+国内市場の上場株式等の決済は約定日から起算して3営業日目に行われる。</t>
+  </si>
+  <si>
+    <t>日々算出される投資信託の価額のこと（1日1回の評価額。１口または１万口の値段の場合が多い）。その投資信託が保有する株式や債券などの時価評価の総額に利息や配当金などの収入を加え、そこから運用コストを差し引いた金額を総口数で割って算出している。</t>
+  </si>
+  <si>
+    <t>公共債</t>
+  </si>
+  <si>
+    <t>国が発行する債券（国債）、地方自治体が発行する債券（地方債）、政府系の機関が発行する債券（政府機関債）をまとめて公共債と呼ぶ</t>
+  </si>
+  <si>
+    <t>国が発行する債券（国債）、地方自治体が発行する債券（地方債）、政府系の機関が発行する債券（政府機関債）をまとめて公共債と呼ぶ。</t>
+  </si>
+  <si>
+    <t>国が発行する債券（国債）、地方自治体が発行する債券（地方債）、政府系の機関が発行する債券（政府機関債）をまと
+めて公共債と呼ぶ。</t>
+  </si>
+  <si>
+    <t>国が発行する債券（国債）、地方自治体が発行する債券（地方債）、政府系の機関が発行する債券（政府機関債）をまとめたもののこと。</t>
+  </si>
+  <si>
+    <t>公社債</t>
+  </si>
+  <si>
+    <t>「公共債」と民間企業が発行する「民間債」の両方を合わせたもののこと。</t>
+  </si>
+  <si>
+    <t>個別元本</t>
+  </si>
+  <si>
+    <t>個々の投資家がそれを購入した時の基準価額のこと。</t>
+  </si>
+  <si>
+    <t>金融派生商品を組み込んだ債券のこと。デリバティブを債券のキャッシュフローに組み込むことによって、
+満期期間やクーポン、償還金等を比較的自由にできるなど、投資家の個別のニーズによるオーダーメイド発行が可能</t>
+  </si>
+  <si>
+    <t>金融派生商品を組み込んだ債券のこと。デリバティブを債券のキャッシュフローに組み込むことによって、満期期間やクーポン、償還金等を比較的自由にできるなど、投資家の個別のニーズによるオーダーメイド発行が可能</t>
+  </si>
+  <si>
+    <t>金融派生商品を組み込んだ債券のこと。デリバティブを債券のキャッシュフローに組み込むことによって、満期期間やクーポン、償還金等を比較的自由にできるなど、投資家の個別のニーズによるオーダーメイド発行が可能。</t>
+  </si>
+  <si>
+    <t>「償還価額（償還日の基準価額）　×　投資信託保有者の保有口数（償還日時点）」
+で算出される金額のことをいい、あらかじめ決められた期日（償還日）に投資家（受益者）に支払われる</t>
+  </si>
+  <si>
+    <t>「償還価額（償還日の基準価額）　×　投資信託保有者の保有口数（償還日時点）」で算出される金額のこと。あらかじめ決められた期日（償還日）に投資家（受益者）に支払われる</t>
+  </si>
+  <si>
+    <t>「償還価額（償還日の基準価額）　×　投資信託保有者の保有口数（償還日時点）」で算出される金額のこと。予め決められた期日（償還日）に投資家（受益者）に支払われる</t>
+  </si>
+  <si>
+    <t>「償還価額（償還日の基準価額）　×　投資信託保有者の保有口数（償還日時点）」で算出される金額のこと。予め決められた期日（償還日）に投資家（受益者）に支払われる。</t>
+  </si>
+  <si>
+    <t>時価総額</t>
+  </si>
+  <si>
+    <t>個別銘柄の株価に、発行済株式数を掛けたものを表したもののこと。</t>
+  </si>
+  <si>
+    <t>短期金利</t>
+  </si>
+  <si>
+    <t>同義語又は対義語</t>
+  </si>
+  <si>
+    <t>長期金利</t>
+  </si>
+  <si>
+    <t>取引の期間が1年以内の金利のこと。</t>
+  </si>
+  <si>
+    <t>当初の元本に対してのみ利息が計算されるもの</t>
+  </si>
+  <si>
+    <t>当初の元本に対してのみ利息が計算されること。</t>
+  </si>
+  <si>
+    <t>単利</t>
   </si>
 </sst>
 </file>
@@ -293,7 +388,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11.0"/>
       <name val="Yu Gothic"/>
@@ -418,6 +513,26 @@
       <sz val="11.0"/>
       <name val="游ゴシック"/>
       <color rgb="FF333333"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <name val="&amp;quot"/>
+      <color rgb="FF333333"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <name val="宋体"/>
+      <color rgb="FF333333"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <name val="游ゴシック"/>
+      <color rgb="FF333333"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="游ゴシック"/>
+      <color/>
     </font>
   </fonts>
   <fills count="33">
@@ -951,7 +1066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,9 +1124,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1031,6 +1143,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1351,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A2:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:D29"/>
+    <sheetView topLeftCell="A16" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
@@ -1374,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1391,32 +1518,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="26.400000">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1424,13 +1549,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1438,77 +1563,77 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="10"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="18"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A12" s="10"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1516,51 +1641,51 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="39.600000">
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="39.600000">
       <c r="A17" s="4">
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1568,36 +1693,36 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.400000">
       <c r="A19" s="4">
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>60</v>
+        <v>99</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>100</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -1606,150 +1731,200 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>101</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="26.400000">
       <c r="A22" s="4">
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>69</v>
+        <v>53</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="26.400000">
       <c r="A23" s="4">
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4">
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4">
-        <v>21</v>
-      </c>
+      <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>78</v>
+        <v>110</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4">
+        <v>26</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4">
+        <v>27</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4">
+        <v>28</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="4">
-        <v>25</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4">
+        <v>29</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>